--- a/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/CP_CUS014_G4.xlsx
+++ b/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/CP_CUS014_G4.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="150" windowWidth="20115" windowHeight="7485" activeTab="2"/>
+    <workbookView xWindow="600" yWindow="150" windowWidth="19440" windowHeight="7485" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Escenarios" sheetId="1" r:id="rId1"/>
     <sheet name="Casos de Prueba" sheetId="2" r:id="rId2"/>
     <sheet name="Juego de Datos" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="41">
   <si>
     <t>Escenario ID</t>
   </si>
@@ -63,9 +63,6 @@
     <t>V2</t>
   </si>
   <si>
-    <t>V3</t>
-  </si>
-  <si>
     <t>SC1 - Registro de proceso satisfactorio</t>
   </si>
   <si>
@@ -96,18 +93,6 @@
     <t>TC1</t>
   </si>
   <si>
-    <t>TC2</t>
-  </si>
-  <si>
-    <t>TC3</t>
-  </si>
-  <si>
-    <t>Registro cancelado</t>
-  </si>
-  <si>
-    <t>Registro incompleto y mensaje de información mostrado</t>
-  </si>
-  <si>
     <t>Proceso de atención al cliente</t>
   </si>
   <si>
@@ -127,13 +112,40 @@
   </si>
   <si>
     <t>Mensaje de confirmación</t>
+  </si>
+  <si>
+    <t>Imagen</t>
+  </si>
+  <si>
+    <t>Operativo</t>
+  </si>
+  <si>
+    <t>Economico</t>
+  </si>
+  <si>
+    <t>Regulatorio o Contractual</t>
+  </si>
+  <si>
+    <t>CRITICO</t>
+  </si>
+  <si>
+    <t>BAJO</t>
+  </si>
+  <si>
+    <t>MEDIO</t>
+  </si>
+  <si>
+    <t>MINIMO</t>
+  </si>
+  <si>
+    <t>ALTO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,7 +174,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -185,11 +197,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -199,6 +233,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -290,7 +336,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -325,7 +370,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -501,37 +545,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
@@ -541,9 +585,9 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
@@ -555,9 +599,9 @@
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
@@ -581,23 +625,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="46" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="13.85546875" customWidth="1"/>
+    <col min="12" max="12" width="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" customWidth="1"/>
+    <col min="14" max="14" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="46" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -605,33 +653,51 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
@@ -652,21 +718,39 @@
         <v>4</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>4</v>
@@ -681,37 +765,33 @@
         <v>4</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>29</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -719,14 +799,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
@@ -736,12 +816,14 @@
     <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.7109375" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" customWidth="1"/>
-    <col min="10" max="10" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="13.85546875" customWidth="1"/>
+    <col min="13" max="13" width="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" customWidth="1"/>
+    <col min="15" max="15" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="42.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -752,136 +834,198 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="J1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="J2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:16">
+      <c r="A3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
+      <c r="J3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/CP_CUS014_G4.xlsx
+++ b/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/CP_CUS014_G4.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="47">
   <si>
     <t>Escenario ID</t>
   </si>
@@ -139,6 +139,24 @@
   </si>
   <si>
     <t>ALTO</t>
+  </si>
+  <si>
+    <t>SC1 - Registro de proceso satisfactorio - No se ingresa Objetivo</t>
+  </si>
+  <si>
+    <t>Proceso de Soporte</t>
+  </si>
+  <si>
+    <t>Proceso de control de recursos informáticos</t>
+  </si>
+  <si>
+    <t>Meza Carbajal, Carlos</t>
+  </si>
+  <si>
+    <t>Hasta 48 horas</t>
+  </si>
+  <si>
+    <t>1 mes</t>
   </si>
 </sst>
 </file>
@@ -235,9 +253,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -245,6 +260,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -566,12 +584,12 @@
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
@@ -787,11 +805,11 @@
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -803,22 +821,21 @@
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="39.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" customWidth="1"/>
-    <col min="9" max="12" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="12.7109375" customWidth="1"/>
     <col min="13" max="13" width="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" customWidth="1"/>
     <col min="15" max="15" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="42.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -924,108 +941,108 @@
       </c>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="C3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="6" t="s">
+      <c r="F3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" s="6" t="s">
+      <c r="M3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="M3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P3" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/CP_CUS014_G4.xlsx
+++ b/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/CP_CUS014_G4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="150" windowWidth="19440" windowHeight="7485" activeTab="2"/>
+    <workbookView xWindow="600" yWindow="150" windowWidth="19440" windowHeight="7485"/>
   </bookViews>
   <sheets>
     <sheet name="Escenarios" sheetId="1" r:id="rId1"/>
@@ -90,9 +90,6 @@
     <t>RTO</t>
   </si>
   <si>
-    <t>TC1</t>
-  </si>
-  <si>
     <t>Proceso de atención al cliente</t>
   </si>
   <si>
@@ -114,18 +111,6 @@
     <t>Mensaje de confirmación</t>
   </si>
   <si>
-    <t>Imagen</t>
-  </si>
-  <si>
-    <t>Operativo</t>
-  </si>
-  <si>
-    <t>Economico</t>
-  </si>
-  <si>
-    <t>Regulatorio o Contractual</t>
-  </si>
-  <si>
     <t>CRITICO</t>
   </si>
   <si>
@@ -157,6 +142,21 @@
   </si>
   <si>
     <t>1 mes</t>
+  </si>
+  <si>
+    <t>TC1_SI_CUS014</t>
+  </si>
+  <si>
+    <t>Prioridad del Impacto Imagen</t>
+  </si>
+  <si>
+    <t>Prioridad del Impacto Operativo</t>
+  </si>
+  <si>
+    <t>Prioridad del Impacto Economico</t>
+  </si>
+  <si>
+    <t>Prioridad del Impacto Regulatorio o Contractual</t>
   </si>
 </sst>
 </file>
@@ -241,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -262,6 +262,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -277,6 +286,742 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3313</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3313</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="1 Conector recto de flecha"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4156213" y="1381125"/>
+          <a:ext cx="0" cy="2695575"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cmpd="sng">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1034498</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>870088</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="2 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3139523" y="1143000"/>
+          <a:ext cx="950015" cy="482600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1100"/>
+            <a:t>Inicio Caso de uso</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>196988</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>73025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>213554</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="3 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4349888" y="3692525"/>
+          <a:ext cx="950016" cy="482600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1100"/>
+            <a:t>Fin Caso de uso</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>222388</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>238954</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="4 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4375288" y="1695450"/>
+          <a:ext cx="950016" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1100" b="1"/>
+            <a:t>SI_CUS014</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>358223</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>3584</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>823025</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="5 Flecha curvada hacia la derecha"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipH="1">
+          <a:off x="3577673" y="1908584"/>
+          <a:ext cx="464802" cy="520291"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-PE" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>56828</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>171448</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>534650</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="6 Flecha curvada hacia la izquierda"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipH="1">
+          <a:off x="4209728" y="2266948"/>
+          <a:ext cx="477822" cy="533402"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedLeftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-PE" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>606562</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>448503</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="7 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4759462" y="2482850"/>
+          <a:ext cx="1537391" cy="279400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1100"/>
+            <a:t>Flujo</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1100" baseline="0"/>
+            <a:t> alternativo 1</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1990725</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>168275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304247</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="8 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1990725" y="2073275"/>
+          <a:ext cx="1532972" cy="260350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1100"/>
+            <a:t>Flujo</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1100" baseline="0"/>
+            <a:t> alternativo 2</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>920888</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>177801</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>327164</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="9 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4140338" y="2844801"/>
+          <a:ext cx="339726" cy="184149"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="800"/>
+            <a:t>5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>920888</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>6351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>327164</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="10 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4140338" y="2673351"/>
+          <a:ext cx="339726" cy="184149"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="es-PE" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>551898</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>177801</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>889139</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="11 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3771348" y="2463801"/>
+          <a:ext cx="337241" cy="184149"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="800"/>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>532848</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>6351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>870089</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="12 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3752298" y="1720851"/>
+          <a:ext cx="337241" cy="184149"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="800"/>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -566,9 +1311,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
@@ -584,12 +1327,12 @@
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
@@ -639,6 +1382,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -646,24 +1390,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1"/>
+    <col min="10" max="11" width="16" customWidth="1"/>
     <col min="12" max="12" width="21" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.85546875" customWidth="1"/>
     <col min="14" max="14" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="46" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" ht="24">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -688,23 +1431,23 @@
       <c r="H1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>32</v>
+      <c r="I1" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>3</v>
@@ -712,9 +1455,9 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -759,10 +1502,10 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>42</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
@@ -820,9 +1563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
@@ -833,14 +1574,16 @@
     <col min="5" max="5" width="39.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="12.7109375" customWidth="1"/>
+    <col min="8" max="9" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" customWidth="1"/>
+    <col min="11" max="12" width="16" customWidth="1"/>
     <col min="13" max="13" width="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" customWidth="1"/>
     <col min="15" max="15" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="42.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" ht="24">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -868,23 +1611,23 @@
       <c r="I1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>32</v>
+      <c r="J1" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>3</v>
@@ -895,43 +1638,43 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="J2" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>13</v>
@@ -944,44 +1687,44 @@
       <c r="A3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>41</v>
+      <c r="B3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>36</v>
+        <v>41</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="O3" s="5" t="s">
         <v>13</v>
@@ -1018,11 +1761,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
       <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
     </row>
@@ -1036,11 +1775,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
       <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
     </row>

--- a/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/CP_CUS014_G4.xlsx
+++ b/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/CP_CUS014_G4.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="150" windowWidth="19440" windowHeight="7485"/>
+    <workbookView xWindow="600" yWindow="150" windowWidth="17400" windowHeight="7485"/>
   </bookViews>
   <sheets>
     <sheet name="Escenarios" sheetId="1" r:id="rId1"/>
@@ -173,7 +173,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -187,7 +187,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC4BD97"/>
+        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -241,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -250,9 +250,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -280,11 +277,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -340,61 +332,57 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1034498</xdr:colOff>
+      <xdr:colOff>676275</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>870088</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:colOff>866775</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="2 CuadroTexto"/>
-        <xdr:cNvSpPr txBox="1"/>
+        <xdr:cNvPr id="1026" name="2 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
       </xdr:nvSpPr>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3139523" y="1143000"/>
-          <a:ext cx="950015" cy="482600"/>
+          <a:off x="2781300" y="1143000"/>
+          <a:ext cx="1304925" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
+        <a:ln w="9525">
           <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
+            <a:srgbClr val="BCBCBC"/>
           </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
         </a:ln>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="0" anchor="t" upright="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
           <a:r>
-            <a:rPr lang="es-PE" sz="1100"/>
+            <a:rPr lang="es-ES" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
             <a:t>Inicio Caso de uso</a:t>
           </a:r>
         </a:p>
@@ -405,61 +393,57 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>196988</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>73025</xdr:rowOff>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>213554</xdr:colOff>
+      <xdr:colOff>704850</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>174625</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="3 CuadroTexto"/>
-        <xdr:cNvSpPr txBox="1"/>
+        <xdr:cNvPr id="1027" name="3 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
       </xdr:nvSpPr>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4349888" y="3692525"/>
-          <a:ext cx="950016" cy="482600"/>
+          <a:off x="4352925" y="3857625"/>
+          <a:ext cx="1438275" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
+        <a:ln w="9525">
           <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
+            <a:srgbClr val="BCBCBC"/>
           </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
         </a:ln>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="0" anchor="t" upright="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
           <a:r>
-            <a:rPr lang="es-PE" sz="1100"/>
+            <a:rPr lang="es-ES" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
             <a:t>Fin Caso de uso</a:t>
           </a:r>
         </a:p>
@@ -470,62 +454,58 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>222388</xdr:colOff>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>238954</xdr:colOff>
+      <xdr:colOff>523875</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="4 CuadroTexto"/>
-        <xdr:cNvSpPr txBox="1"/>
+        <xdr:cNvPr id="1028" name="4 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
       </xdr:nvSpPr>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4375288" y="1695450"/>
-          <a:ext cx="950016" cy="254000"/>
+          <a:off x="4371975" y="1524000"/>
+          <a:ext cx="1238250" cy="428625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
+        <a:ln w="9525">
           <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
+            <a:srgbClr val="BCBCBC"/>
           </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
         </a:ln>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="0" anchor="t" upright="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
           <a:r>
-            <a:rPr lang="es-PE" sz="1100" b="1"/>
-            <a:t>SI_CUS014</a:t>
+            <a:rPr lang="es-ES" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>SI_CUS014_CREAR_PROCESOS</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -579,12 +559,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="es-PE" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -637,12 +612,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="es-PE" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -896,8 +866,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="es-PE" sz="800"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1025,7 +994,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1311,7 +1280,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
@@ -1327,12 +1298,12 @@
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
@@ -1380,6 +1351,7 @@
   <mergeCells count="1">
     <mergeCell ref="C1:F1"/>
   </mergeCells>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -1431,22 +1403,22 @@
       <c r="H1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="1" t="s">
         <v>30</v>
       </c>
       <c r="O1" s="1" t="s">
@@ -1457,7 +1429,7 @@
       <c r="A2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1504,7 +1476,7 @@
       <c r="A3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1548,13 +1520,14 @@
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1611,19 +1584,19 @@
       <c r="I1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="9" t="s">
         <v>43</v>
       </c>
       <c r="O1" s="1" t="s">
@@ -1640,7 +1613,7 @@
       <c r="B2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1684,31 +1657,31 @@
       </c>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>41</v>
       </c>
       <c r="J3" s="2" t="s">
@@ -1720,66 +1693,67 @@
       <c r="L3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="4" t="s">
         <v>35</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="P3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/CP_CUS014_G4.xlsx
+++ b/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/CP_CUS014_G4.xlsx
@@ -178,7 +178,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -188,6 +188,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="23"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -241,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -249,7 +255,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -267,6 +272,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1281,7 +1290,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1298,12 +1307,12 @@
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
@@ -1312,10 +1321,10 @@
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -1327,9 +1336,9 @@
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="3"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
@@ -1344,8 +1353,8 @@
       <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="3"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1403,19 +1412,19 @@
       <c r="H1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="8" t="s">
         <v>43</v>
       </c>
       <c r="N1" s="1" t="s">
@@ -1429,7 +1438,7 @@
       <c r="A2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1476,7 +1485,7 @@
       <c r="A3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>36</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1520,11 +1529,11 @@
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -1584,19 +1593,19 @@
       <c r="I1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="8" t="s">
         <v>43</v>
       </c>
       <c r="O1" s="1" t="s">
@@ -1613,7 +1622,7 @@
       <c r="B2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1657,31 +1666,31 @@
       </c>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>41</v>
       </c>
       <c r="J3" s="2" t="s">
@@ -1693,64 +1702,64 @@
       <c r="L3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="P3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
